--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2397.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2397.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.073244737149574</v>
+        <v>1.108731150627136</v>
       </c>
       <c r="B1">
-        <v>2.360845018624872</v>
+        <v>2.410696506500244</v>
       </c>
       <c r="C1">
-        <v>7.203823749803445</v>
+        <v>5.056607246398926</v>
       </c>
       <c r="D1">
-        <v>1.771789521628162</v>
+        <v>2.28563928604126</v>
       </c>
       <c r="E1">
-        <v>0.9926659015951189</v>
+        <v>1.275812268257141</v>
       </c>
     </row>
   </sheetData>
